--- a/data/raw/election/voters-age-sex-education/2023/Malatya.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Malatya.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="42">
   <si>
     <t>Malatya</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>Yeşilyurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -672,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -686,11 +693,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1020,10 +1036,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K180" sqref="K180"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162:K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,52 +1054,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="5">
-        <v>1.244</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1195,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="5">
-        <v>1.085</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1235,7 +1251,7 @@
       <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>881</v>
       </c>
     </row>
@@ -1274,7 +1290,7 @@
       <c r="L9" s="4">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>673</v>
       </c>
     </row>
@@ -1315,7 +1331,7 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>781</v>
       </c>
     </row>
@@ -1354,7 +1370,7 @@
       <c r="L11" s="4">
         <v>6</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>545</v>
       </c>
     </row>
@@ -1395,7 +1411,7 @@
       <c r="L12" s="4">
         <v>10</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>854</v>
       </c>
     </row>
@@ -1434,7 +1450,7 @@
       <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>544</v>
       </c>
     </row>
@@ -1475,7 +1491,7 @@
       <c r="L14" s="4">
         <v>9</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>918</v>
       </c>
     </row>
@@ -1514,7 +1530,7 @@
       <c r="L15" s="4">
         <v>7</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>652</v>
       </c>
     </row>
@@ -1555,7 +1571,7 @@
       <c r="L16" s="4">
         <v>16</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>908</v>
       </c>
     </row>
@@ -1594,7 +1610,7 @@
       <c r="L17" s="4">
         <v>9</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>684</v>
       </c>
     </row>
@@ -1635,7 +1651,7 @@
       <c r="L18" s="4">
         <v>14</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>999</v>
       </c>
     </row>
@@ -1674,7 +1690,7 @@
       <c r="L19" s="4">
         <v>12</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>832</v>
       </c>
     </row>
@@ -1716,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="M20" s="5">
-        <v>1.0469999999999999</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1754,7 +1770,7 @@
       <c r="L21" s="4">
         <v>19</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>908</v>
       </c>
     </row>
@@ -1795,7 +1811,7 @@
       <c r="L22" s="4">
         <v>19</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>983</v>
       </c>
     </row>
@@ -1834,7 +1850,7 @@
       <c r="L23" s="4">
         <v>18</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>866</v>
       </c>
     </row>
@@ -1875,7 +1891,7 @@
       <c r="L24" s="4">
         <v>24</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>863</v>
       </c>
     </row>
@@ -1914,7 +1930,7 @@
       <c r="L25" s="4">
         <v>23</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>831</v>
       </c>
     </row>
@@ -1955,7 +1971,7 @@
       <c r="L26" s="4">
         <v>12</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>650</v>
       </c>
     </row>
@@ -1994,7 +2010,7 @@
       <c r="L27" s="4">
         <v>13</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>680</v>
       </c>
     </row>
@@ -2035,7 +2051,7 @@
       <c r="L28" s="4">
         <v>18</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>825</v>
       </c>
     </row>
@@ -2075,53 +2091,53 @@
         <v>33</v>
       </c>
       <c r="M29" s="5">
-        <v>1.29</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
-        <v>1.4570000000000001</v>
+        <v>1457</v>
       </c>
       <c r="D30" s="5">
-        <v>1.073</v>
+        <v>1073</v>
       </c>
       <c r="E30" s="5">
-        <v>4.9889999999999999</v>
+        <v>4989</v>
       </c>
       <c r="F30" s="5">
-        <v>1.631</v>
+        <v>1631</v>
       </c>
       <c r="G30" s="5">
-        <v>2.9329999999999998</v>
+        <v>2933</v>
       </c>
       <c r="H30" s="5">
-        <v>5.5679999999999996</v>
+        <v>5568</v>
       </c>
       <c r="I30" s="5">
-        <v>2.4089999999999998</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2409</v>
+      </c>
+      <c r="J30" s="6">
         <v>161</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>11</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>311</v>
       </c>
       <c r="M30" s="5">
-        <v>20.542999999999999</v>
+        <v>20543</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2209,7 @@
       <c r="L32" s="4">
         <v>7</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>448</v>
       </c>
     </row>
@@ -2232,7 +2248,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>409</v>
       </c>
     </row>
@@ -2273,7 +2289,7 @@
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>317</v>
       </c>
     </row>
@@ -2312,7 +2328,7 @@
       <c r="L35" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>258</v>
       </c>
     </row>
@@ -2353,7 +2369,7 @@
       <c r="L36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>258</v>
       </c>
     </row>
@@ -2392,7 +2408,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>229</v>
       </c>
     </row>
@@ -2433,7 +2449,7 @@
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>317</v>
       </c>
     </row>
@@ -2472,7 +2488,7 @@
       <c r="L39" s="4">
         <v>2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>256</v>
       </c>
     </row>
@@ -2513,7 +2529,7 @@
       <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>304</v>
       </c>
     </row>
@@ -2552,7 +2568,7 @@
       <c r="L41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>291</v>
       </c>
     </row>
@@ -2593,7 +2609,7 @@
       <c r="L42" s="4">
         <v>2</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>323</v>
       </c>
     </row>
@@ -2632,7 +2648,7 @@
       <c r="L43" s="4">
         <v>2</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>279</v>
       </c>
     </row>
@@ -2673,7 +2689,7 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>348</v>
       </c>
     </row>
@@ -2712,7 +2728,7 @@
       <c r="L45" s="4">
         <v>3</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>315</v>
       </c>
     </row>
@@ -2753,7 +2769,7 @@
       <c r="L46" s="4">
         <v>3</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>336</v>
       </c>
     </row>
@@ -2792,7 +2808,7 @@
       <c r="L47" s="4">
         <v>2</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>311</v>
       </c>
     </row>
@@ -2833,7 +2849,7 @@
       <c r="L48" s="4">
         <v>3</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>351</v>
       </c>
     </row>
@@ -2872,7 +2888,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>309</v>
       </c>
     </row>
@@ -2913,7 +2929,7 @@
       <c r="L50" s="4">
         <v>5</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>344</v>
       </c>
     </row>
@@ -2952,7 +2968,7 @@
       <c r="L51" s="4">
         <v>4</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>341</v>
       </c>
     </row>
@@ -2993,7 +3009,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>262</v>
       </c>
     </row>
@@ -3032,7 +3048,7 @@
       <c r="L53" s="4">
         <v>4</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>320</v>
       </c>
     </row>
@@ -3073,7 +3089,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>503</v>
       </c>
     </row>
@@ -3112,7 +3128,7 @@
       <c r="L55" s="4">
         <v>12</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>736</v>
       </c>
     </row>
@@ -3120,46 +3136,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>717</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>360</v>
       </c>
       <c r="E56" s="5">
-        <v>2.4079999999999999</v>
-      </c>
-      <c r="F56" s="5">
+        <v>2408</v>
+      </c>
+      <c r="F56" s="6">
         <v>609</v>
       </c>
       <c r="G56" s="5">
-        <v>1.095</v>
+        <v>1095</v>
       </c>
       <c r="H56" s="5">
-        <v>1.8120000000000001</v>
+        <v>1812</v>
       </c>
       <c r="I56" s="5">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="J56" s="5">
+        <v>1005</v>
+      </c>
+      <c r="J56" s="6">
         <v>86</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>12</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>61</v>
       </c>
       <c r="M56" s="5">
-        <v>8.1649999999999991</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3231,7 +3247,7 @@
       <c r="L58" s="4">
         <v>1</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>262</v>
       </c>
     </row>
@@ -3270,7 +3286,7 @@
       <c r="L59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>225</v>
       </c>
     </row>
@@ -3311,7 +3327,7 @@
       <c r="L60" s="4">
         <v>1</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>196</v>
       </c>
     </row>
@@ -3350,7 +3366,7 @@
       <c r="L61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>126</v>
       </c>
     </row>
@@ -3391,7 +3407,7 @@
       <c r="L62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>172</v>
       </c>
     </row>
@@ -3430,7 +3446,7 @@
       <c r="L63" s="4">
         <v>2</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>123</v>
       </c>
     </row>
@@ -3471,7 +3487,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>161</v>
       </c>
     </row>
@@ -3510,7 +3526,7 @@
       <c r="L65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>120</v>
       </c>
     </row>
@@ -3551,7 +3567,7 @@
       <c r="L66" s="4">
         <v>3</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>225</v>
       </c>
     </row>
@@ -3590,7 +3606,7 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>134</v>
       </c>
     </row>
@@ -3631,7 +3647,7 @@
       <c r="L68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>227</v>
       </c>
     </row>
@@ -3670,7 +3686,7 @@
       <c r="L69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>198</v>
       </c>
     </row>
@@ -3711,7 +3727,7 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>225</v>
       </c>
     </row>
@@ -3750,7 +3766,7 @@
       <c r="L71" s="4">
         <v>2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>237</v>
       </c>
     </row>
@@ -3791,7 +3807,7 @@
       <c r="L72" s="4">
         <v>1</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>314</v>
       </c>
     </row>
@@ -3830,7 +3846,7 @@
       <c r="L73" s="4">
         <v>2</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>252</v>
       </c>
     </row>
@@ -3871,7 +3887,7 @@
       <c r="L74" s="4">
         <v>5</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>308</v>
       </c>
     </row>
@@ -3910,7 +3926,7 @@
       <c r="L75" s="4">
         <v>4</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>246</v>
       </c>
     </row>
@@ -3951,7 +3967,7 @@
       <c r="L76" s="4">
         <v>6</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>267</v>
       </c>
     </row>
@@ -3990,7 +4006,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>267</v>
       </c>
     </row>
@@ -4031,7 +4047,7 @@
       <c r="L78" s="4">
         <v>4</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>250</v>
       </c>
     </row>
@@ -4070,7 +4086,7 @@
       <c r="L79" s="4">
         <v>4</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>263</v>
       </c>
     </row>
@@ -4111,7 +4127,7 @@
       <c r="L80" s="4">
         <v>5</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>381</v>
       </c>
     </row>
@@ -4150,7 +4166,7 @@
       <c r="L81" s="4">
         <v>7</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>632</v>
       </c>
     </row>
@@ -4158,46 +4174,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>734</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>312</v>
       </c>
       <c r="E82" s="5">
-        <v>1.7789999999999999</v>
-      </c>
-      <c r="F82" s="5">
+        <v>1779</v>
+      </c>
+      <c r="F82" s="6">
         <v>417</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="6">
         <v>797</v>
       </c>
       <c r="H82" s="5">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="I82" s="5">
+        <v>1166</v>
+      </c>
+      <c r="I82" s="6">
         <v>519</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>28</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>3</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>56</v>
       </c>
       <c r="M82" s="5">
-        <v>5.8109999999999999</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4251,14 +4267,14 @@
       <c r="F84" s="4">
         <v>8</v>
       </c>
-      <c r="G84" s="4">
-        <v>2.9620000000000002</v>
-      </c>
-      <c r="H84" s="4">
-        <v>9.9580000000000002</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.8340000000000001</v>
+      <c r="G84" s="8">
+        <v>2962</v>
+      </c>
+      <c r="H84" s="8">
+        <v>9958</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1834</v>
       </c>
       <c r="J84" s="4">
         <v>14</v>
@@ -4270,7 +4286,7 @@
         <v>163</v>
       </c>
       <c r="M84" s="5">
-        <v>15.036</v>
+        <v>15036</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4290,14 +4306,14 @@
       <c r="F85" s="4">
         <v>5</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.3170000000000002</v>
-      </c>
-      <c r="H85" s="4">
-        <v>9.6189999999999998</v>
-      </c>
-      <c r="I85" s="4">
-        <v>2.4790000000000001</v>
+      <c r="G85" s="8">
+        <v>2317</v>
+      </c>
+      <c r="H85" s="8">
+        <v>9619</v>
+      </c>
+      <c r="I85" s="8">
+        <v>2479</v>
       </c>
       <c r="J85" s="4">
         <v>23</v>
@@ -4309,7 +4325,7 @@
         <v>79</v>
       </c>
       <c r="M85" s="5">
-        <v>14.632</v>
+        <v>14632</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4331,14 +4347,14 @@
       <c r="F86" s="4">
         <v>93</v>
       </c>
-      <c r="G86" s="4">
-        <v>2.032</v>
-      </c>
-      <c r="H86" s="4">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="I86" s="4">
-        <v>3.9830000000000001</v>
+      <c r="G86" s="8">
+        <v>2032</v>
+      </c>
+      <c r="H86" s="8">
+        <v>3884</v>
+      </c>
+      <c r="I86" s="8">
+        <v>3983</v>
       </c>
       <c r="J86" s="4">
         <v>324</v>
@@ -4350,7 +4366,7 @@
         <v>93</v>
       </c>
       <c r="M86" s="5">
-        <v>10.503</v>
+        <v>10503</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4370,14 +4386,14 @@
       <c r="F87" s="4">
         <v>143</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="H87" s="4">
-        <v>2.7149999999999999</v>
-      </c>
-      <c r="I87" s="4">
-        <v>4.7770000000000001</v>
+      <c r="G87" s="8">
+        <v>1783</v>
+      </c>
+      <c r="H87" s="8">
+        <v>2715</v>
+      </c>
+      <c r="I87" s="8">
+        <v>4777</v>
       </c>
       <c r="J87" s="4">
         <v>407</v>
@@ -4389,7 +4405,7 @@
         <v>85</v>
       </c>
       <c r="M87" s="5">
-        <v>10.287000000000001</v>
+        <v>10287</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4408,17 +4424,17 @@
       <c r="E88" s="4">
         <v>57</v>
       </c>
-      <c r="F88" s="4">
-        <v>1.131</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="H88" s="4">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="I88" s="4">
-        <v>3.3820000000000001</v>
+      <c r="F88" s="8">
+        <v>1131</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1086</v>
+      </c>
+      <c r="H88" s="8">
+        <v>3493</v>
+      </c>
+      <c r="I88" s="8">
+        <v>3382</v>
       </c>
       <c r="J88" s="4">
         <v>419</v>
@@ -4430,7 +4446,7 @@
         <v>74</v>
       </c>
       <c r="M88" s="5">
-        <v>9.7330000000000005</v>
+        <v>9733</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4447,17 +4463,17 @@
       <c r="E89" s="4">
         <v>222</v>
       </c>
-      <c r="F89" s="4">
-        <v>1.4990000000000001</v>
+      <c r="F89" s="8">
+        <v>1499</v>
       </c>
       <c r="G89" s="4">
         <v>938</v>
       </c>
-      <c r="H89" s="4">
-        <v>2.5459999999999998</v>
-      </c>
-      <c r="I89" s="4">
-        <v>3.2469999999999999</v>
+      <c r="H89" s="8">
+        <v>2546</v>
+      </c>
+      <c r="I89" s="8">
+        <v>3247</v>
       </c>
       <c r="J89" s="4">
         <v>369</v>
@@ -4469,7 +4485,7 @@
         <v>89</v>
       </c>
       <c r="M89" s="5">
-        <v>9.3010000000000002</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4488,17 +4504,17 @@
       <c r="E90" s="4">
         <v>455</v>
       </c>
-      <c r="F90" s="4">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="H90" s="4">
-        <v>3.5960000000000001</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.673</v>
+      <c r="F90" s="8">
+        <v>1567</v>
+      </c>
+      <c r="G90" s="8">
+        <v>1064</v>
+      </c>
+      <c r="H90" s="8">
+        <v>3596</v>
+      </c>
+      <c r="I90" s="8">
+        <v>2673</v>
       </c>
       <c r="J90" s="4">
         <v>353</v>
@@ -4510,7 +4526,7 @@
         <v>81</v>
       </c>
       <c r="M90" s="5">
-        <v>9.9160000000000004</v>
+        <v>9916</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4524,20 +4540,20 @@
       <c r="D91" s="4">
         <v>210</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.3380000000000001</v>
+      <c r="E91" s="8">
+        <v>1945</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1338</v>
       </c>
       <c r="G91" s="4">
         <v>912</v>
       </c>
-      <c r="H91" s="4">
-        <v>2.6779999999999999</v>
-      </c>
-      <c r="I91" s="4">
-        <v>2.0750000000000002</v>
+      <c r="H91" s="8">
+        <v>2678</v>
+      </c>
+      <c r="I91" s="8">
+        <v>2075</v>
       </c>
       <c r="J91" s="4">
         <v>228</v>
@@ -4549,7 +4565,7 @@
         <v>89</v>
       </c>
       <c r="M91" s="5">
-        <v>9.6679999999999993</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4568,17 +4584,17 @@
       <c r="E92" s="4">
         <v>795</v>
       </c>
-      <c r="F92" s="4">
-        <v>1.476</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.7789999999999999</v>
-      </c>
-      <c r="H92" s="4">
-        <v>3.742</v>
-      </c>
-      <c r="I92" s="4">
-        <v>2.0219999999999998</v>
+      <c r="F92" s="8">
+        <v>1476</v>
+      </c>
+      <c r="G92" s="8">
+        <v>1779</v>
+      </c>
+      <c r="H92" s="8">
+        <v>3742</v>
+      </c>
+      <c r="I92" s="8">
+        <v>2022</v>
       </c>
       <c r="J92" s="4">
         <v>337</v>
@@ -4590,7 +4606,7 @@
         <v>79</v>
       </c>
       <c r="M92" s="5">
-        <v>10.36</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4604,20 +4620,20 @@
       <c r="D93" s="4">
         <v>252</v>
       </c>
-      <c r="E93" s="4">
-        <v>3.05</v>
+      <c r="E93" s="8">
+        <v>3050</v>
       </c>
       <c r="F93" s="4">
         <v>972</v>
       </c>
-      <c r="G93" s="4">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="H93" s="4">
-        <v>2.468</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.42</v>
+      <c r="G93" s="8">
+        <v>1352</v>
+      </c>
+      <c r="H93" s="8">
+        <v>2468</v>
+      </c>
+      <c r="I93" s="8">
+        <v>1420</v>
       </c>
       <c r="J93" s="4">
         <v>183</v>
@@ -4629,7 +4645,7 @@
         <v>79</v>
       </c>
       <c r="M93" s="5">
-        <v>9.9830000000000005</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4648,17 +4664,17 @@
       <c r="E94" s="4">
         <v>975</v>
       </c>
-      <c r="F94" s="4">
-        <v>1.347</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1.649</v>
-      </c>
-      <c r="H94" s="4">
-        <v>2.948</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.4610000000000001</v>
+      <c r="F94" s="8">
+        <v>1347</v>
+      </c>
+      <c r="G94" s="8">
+        <v>1649</v>
+      </c>
+      <c r="H94" s="8">
+        <v>2948</v>
+      </c>
+      <c r="I94" s="8">
+        <v>1461</v>
       </c>
       <c r="J94" s="4">
         <v>204</v>
@@ -4670,7 +4686,7 @@
         <v>72</v>
       </c>
       <c r="M94" s="5">
-        <v>8.7870000000000008</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4684,17 +4700,17 @@
       <c r="D95" s="4">
         <v>283</v>
       </c>
-      <c r="E95" s="4">
-        <v>3.0819999999999999</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1.7789999999999999</v>
+      <c r="E95" s="8">
+        <v>3082</v>
+      </c>
+      <c r="F95" s="8">
+        <v>1044</v>
+      </c>
+      <c r="G95" s="8">
+        <v>1295</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1779</v>
       </c>
       <c r="I95" s="4">
         <v>909</v>
@@ -4709,7 +4725,7 @@
         <v>75</v>
       </c>
       <c r="M95" s="5">
-        <v>8.8279999999999994</v>
+        <v>8828</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4725,20 +4741,20 @@
       <c r="D96" s="4">
         <v>47</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.036</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.728</v>
-      </c>
-      <c r="H96" s="4">
-        <v>2.0369999999999999</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1.135</v>
+      <c r="E96" s="8">
+        <v>1036</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1269</v>
+      </c>
+      <c r="G96" s="8">
+        <v>1728</v>
+      </c>
+      <c r="H96" s="8">
+        <v>2037</v>
+      </c>
+      <c r="I96" s="8">
+        <v>1135</v>
       </c>
       <c r="J96" s="4">
         <v>156</v>
@@ -4750,7 +4766,7 @@
         <v>75</v>
       </c>
       <c r="M96" s="5">
-        <v>7.5830000000000002</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4764,17 +4780,17 @@
       <c r="D97" s="4">
         <v>399</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.988</v>
-      </c>
-      <c r="F97" s="4">
-        <v>1.032</v>
-      </c>
-      <c r="G97" s="4">
-        <v>1.232</v>
-      </c>
-      <c r="H97" s="4">
-        <v>1.218</v>
+      <c r="E97" s="8">
+        <v>2988</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1032</v>
+      </c>
+      <c r="G97" s="8">
+        <v>1232</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1218</v>
       </c>
       <c r="I97" s="4">
         <v>488</v>
@@ -4789,7 +4805,7 @@
         <v>81</v>
       </c>
       <c r="M97" s="5">
-        <v>7.8710000000000004</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4805,17 +4821,17 @@
       <c r="D98" s="4">
         <v>71</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.337</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1.111</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1.579</v>
-      </c>
-      <c r="H98" s="4">
-        <v>1.712</v>
+      <c r="E98" s="8">
+        <v>1337</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1111</v>
+      </c>
+      <c r="G98" s="8">
+        <v>1579</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1712</v>
       </c>
       <c r="I98" s="4">
         <v>863</v>
@@ -4830,7 +4846,7 @@
         <v>76</v>
       </c>
       <c r="M98" s="5">
-        <v>6.9249999999999998</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4844,8 +4860,8 @@
       <c r="D99" s="4">
         <v>554</v>
       </c>
-      <c r="E99" s="4">
-        <v>2.8679999999999999</v>
+      <c r="E99" s="8">
+        <v>2868</v>
       </c>
       <c r="F99" s="4">
         <v>714</v>
@@ -4869,7 +4885,7 @@
         <v>58</v>
       </c>
       <c r="M99" s="5">
-        <v>6.89</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4885,8 +4901,8 @@
       <c r="D100" s="4">
         <v>66</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.504</v>
+      <c r="E100" s="8">
+        <v>1504</v>
       </c>
       <c r="F100" s="4">
         <v>656</v>
@@ -4894,8 +4910,8 @@
       <c r="G100" s="4">
         <v>989</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.516</v>
+      <c r="H100" s="8">
+        <v>1516</v>
       </c>
       <c r="I100" s="4">
         <v>673</v>
@@ -4910,7 +4926,7 @@
         <v>66</v>
       </c>
       <c r="M100" s="5">
-        <v>5.6319999999999997</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4924,8 +4940,8 @@
       <c r="D101" s="4">
         <v>667</v>
       </c>
-      <c r="E101" s="4">
-        <v>2.4460000000000002</v>
+      <c r="E101" s="8">
+        <v>2446</v>
       </c>
       <c r="F101" s="4">
         <v>325</v>
@@ -4949,7 +4965,7 @@
         <v>66</v>
       </c>
       <c r="M101" s="5">
-        <v>5.7610000000000001</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4965,8 +4981,8 @@
       <c r="D102" s="4">
         <v>184</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.69</v>
+      <c r="E102" s="8">
+        <v>1690</v>
       </c>
       <c r="F102" s="4">
         <v>316</v>
@@ -4990,7 +5006,7 @@
         <v>57</v>
       </c>
       <c r="M102" s="5">
-        <v>4.37</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4998,14 +5014,14 @@
       <c r="B103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="4">
-        <v>1.115</v>
+      <c r="C103" s="8">
+        <v>1115</v>
       </c>
       <c r="D103" s="4">
         <v>685</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.859</v>
+      <c r="E103" s="8">
+        <v>1859</v>
       </c>
       <c r="F103" s="4">
         <v>125</v>
@@ -5029,7 +5045,7 @@
         <v>59</v>
       </c>
       <c r="M103" s="5">
-        <v>4.5670000000000002</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5045,8 +5061,8 @@
       <c r="D104" s="4">
         <v>204</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.45</v>
+      <c r="E104" s="8">
+        <v>1450</v>
       </c>
       <c r="F104" s="4">
         <v>116</v>
@@ -5070,7 +5086,7 @@
         <v>39</v>
       </c>
       <c r="M104" s="5">
-        <v>3.0219999999999998</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5078,14 +5094,14 @@
       <c r="B105" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
-        <v>1.4079999999999999</v>
+      <c r="C105" s="8">
+        <v>1408</v>
       </c>
       <c r="D105" s="4">
         <v>609</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.1379999999999999</v>
+      <c r="E105" s="8">
+        <v>1138</v>
       </c>
       <c r="F105" s="4">
         <v>42</v>
@@ -5109,7 +5125,7 @@
         <v>56</v>
       </c>
       <c r="M105" s="5">
-        <v>3.589</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5125,8 +5141,8 @@
       <c r="D106" s="4">
         <v>559</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.6120000000000001</v>
+      <c r="E106" s="8">
+        <v>1612</v>
       </c>
       <c r="F106" s="4">
         <v>52</v>
@@ -5150,7 +5166,7 @@
         <v>86</v>
       </c>
       <c r="M106" s="5">
-        <v>3.722</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5158,14 +5174,14 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>3.31</v>
+      <c r="C107" s="8">
+        <v>3310</v>
       </c>
       <c r="D107" s="4">
         <v>869</v>
       </c>
-      <c r="E107" s="4">
-        <v>1.036</v>
+      <c r="E107" s="8">
+        <v>1036</v>
       </c>
       <c r="F107" s="4">
         <v>21</v>
@@ -5189,53 +5205,53 @@
         <v>125</v>
       </c>
       <c r="M107" s="5">
-        <v>5.5650000000000004</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>9.2159999999999993</v>
+        <v>9216</v>
       </c>
       <c r="D108" s="5">
-        <v>6.375</v>
+        <v>6375</v>
       </c>
       <c r="E108" s="5">
-        <v>31.933</v>
+        <v>31933</v>
       </c>
       <c r="F108" s="5">
-        <v>16.402000000000001</v>
+        <v>16402</v>
       </c>
       <c r="G108" s="5">
-        <v>27.93</v>
+        <v>27930</v>
       </c>
       <c r="H108" s="5">
-        <v>59.563000000000002</v>
+        <v>59563</v>
       </c>
       <c r="I108" s="5">
-        <v>35.143999999999998</v>
+        <v>35144</v>
       </c>
       <c r="J108" s="5">
-        <v>3.3780000000000001</v>
-      </c>
-      <c r="K108" s="5">
+        <v>3378</v>
+      </c>
+      <c r="K108" s="6">
         <v>688</v>
       </c>
       <c r="L108" s="5">
-        <v>1.9019999999999999</v>
+        <v>1902</v>
       </c>
       <c r="M108" s="5">
-        <v>192.53100000000001</v>
+        <v>192531</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5308,7 +5324,7 @@
         <v>18</v>
       </c>
       <c r="M110" s="5">
-        <v>1.3140000000000001</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5347,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="M111" s="5">
-        <v>1.3169999999999999</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5387,7 +5403,7 @@
       <c r="L112" s="4">
         <v>6</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="6">
         <v>782</v>
       </c>
     </row>
@@ -5426,7 +5442,7 @@
       <c r="L113" s="4">
         <v>5</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="6">
         <v>713</v>
       </c>
     </row>
@@ -5467,7 +5483,7 @@
       <c r="L114" s="4">
         <v>3</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>660</v>
       </c>
     </row>
@@ -5506,7 +5522,7 @@
       <c r="L115" s="4">
         <v>3</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>646</v>
       </c>
     </row>
@@ -5547,7 +5563,7 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>781</v>
       </c>
     </row>
@@ -5586,7 +5602,7 @@
       <c r="L117" s="4">
         <v>12</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>741</v>
       </c>
     </row>
@@ -5627,7 +5643,7 @@
       <c r="L118" s="4">
         <v>3</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>838</v>
       </c>
     </row>
@@ -5666,7 +5682,7 @@
       <c r="L119" s="4">
         <v>7</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>732</v>
       </c>
     </row>
@@ -5707,7 +5723,7 @@
       <c r="L120" s="4">
         <v>9</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>787</v>
       </c>
     </row>
@@ -5746,7 +5762,7 @@
       <c r="L121" s="4">
         <v>7</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>743</v>
       </c>
     </row>
@@ -5787,7 +5803,7 @@
       <c r="L122" s="4">
         <v>9</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>771</v>
       </c>
     </row>
@@ -5826,7 +5842,7 @@
       <c r="L123" s="4">
         <v>8</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>781</v>
       </c>
     </row>
@@ -5867,7 +5883,7 @@
       <c r="L124" s="4">
         <v>5</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>854</v>
       </c>
     </row>
@@ -5906,7 +5922,7 @@
       <c r="L125" s="4">
         <v>6</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>770</v>
       </c>
     </row>
@@ -5947,7 +5963,7 @@
       <c r="L126" s="4">
         <v>9</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>800</v>
       </c>
     </row>
@@ -5986,7 +6002,7 @@
       <c r="L127" s="4">
         <v>10</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>715</v>
       </c>
     </row>
@@ -6027,7 +6043,7 @@
       <c r="L128" s="4">
         <v>8</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>713</v>
       </c>
     </row>
@@ -6066,7 +6082,7 @@
       <c r="L129" s="4">
         <v>18</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>693</v>
       </c>
     </row>
@@ -6107,7 +6123,7 @@
       <c r="L130" s="4">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>514</v>
       </c>
     </row>
@@ -6146,7 +6162,7 @@
       <c r="L131" s="4">
         <v>9</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>594</v>
       </c>
     </row>
@@ -6187,7 +6203,7 @@
       <c r="L132" s="4">
         <v>10</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>646</v>
       </c>
     </row>
@@ -6227,53 +6243,53 @@
         <v>21</v>
       </c>
       <c r="M133" s="5">
-        <v>1.0509999999999999</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="D134" s="5">
+        <v>1148</v>
+      </c>
+      <c r="D134" s="6">
         <v>832</v>
       </c>
       <c r="E134" s="5">
-        <v>5.3550000000000004</v>
+        <v>5355</v>
       </c>
       <c r="F134" s="5">
-        <v>1.5429999999999999</v>
+        <v>1543</v>
       </c>
       <c r="G134" s="5">
-        <v>2.633</v>
+        <v>2633</v>
       </c>
       <c r="H134" s="5">
-        <v>4.593</v>
+        <v>4593</v>
       </c>
       <c r="I134" s="5">
-        <v>2.407</v>
-      </c>
-      <c r="J134" s="5">
+        <v>2407</v>
+      </c>
+      <c r="J134" s="6">
         <v>236</v>
       </c>
-      <c r="K134" s="5">
-        <v>14</v>
-      </c>
-      <c r="L134" s="5">
+      <c r="K134" s="6">
+        <v>14</v>
+      </c>
+      <c r="L134" s="6">
         <v>195</v>
       </c>
       <c r="M134" s="5">
-        <v>18.956</v>
+        <v>18956</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6330,8 +6346,8 @@
       <c r="G136" s="4">
         <v>490</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.1759999999999999</v>
+      <c r="H136" s="8">
+        <v>1176</v>
       </c>
       <c r="I136" s="4">
         <v>164</v>
@@ -6346,7 +6362,7 @@
         <v>12</v>
       </c>
       <c r="M136" s="5">
-        <v>1.847</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6369,8 +6385,8 @@
       <c r="G137" s="4">
         <v>325</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.0980000000000001</v>
+      <c r="H137" s="8">
+        <v>1098</v>
       </c>
       <c r="I137" s="4">
         <v>241</v>
@@ -6385,7 +6401,7 @@
         <v>4</v>
       </c>
       <c r="M137" s="5">
-        <v>1.6830000000000001</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6426,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="M138" s="5">
-        <v>1.1040000000000001</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6465,7 +6481,7 @@
         <v>5</v>
       </c>
       <c r="M139" s="5">
-        <v>1.0429999999999999</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6506,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="M140" s="5">
-        <v>1.02</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6544,7 +6560,7 @@
       <c r="L141" s="4">
         <v>4</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>952</v>
       </c>
     </row>
@@ -6586,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="M142" s="5">
-        <v>1.177</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6625,7 +6641,7 @@
         <v>5</v>
       </c>
       <c r="M143" s="5">
-        <v>1.018</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6666,7 +6682,7 @@
         <v>5</v>
       </c>
       <c r="M144" s="5">
-        <v>1.2410000000000001</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6705,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="M145" s="5">
-        <v>1.181</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6746,7 +6762,7 @@
         <v>8</v>
       </c>
       <c r="M146" s="5">
-        <v>1.234</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6785,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="M147" s="5">
-        <v>1.1359999999999999</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6826,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="M148" s="5">
-        <v>1.1819999999999999</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6865,7 +6881,7 @@
         <v>11</v>
       </c>
       <c r="M149" s="5">
-        <v>1.111</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6906,7 +6922,7 @@
         <v>17</v>
       </c>
       <c r="M150" s="5">
-        <v>1.2050000000000001</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6945,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="M151" s="5">
-        <v>1.0409999999999999</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6986,7 +7002,7 @@
         <v>14</v>
       </c>
       <c r="M152" s="5">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7024,7 +7040,7 @@
       <c r="L153" s="4">
         <v>15</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>917</v>
       </c>
     </row>
@@ -7065,7 +7081,7 @@
       <c r="L154" s="4">
         <v>13</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>941</v>
       </c>
     </row>
@@ -7104,7 +7120,7 @@
       <c r="L155" s="4">
         <v>12</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>807</v>
       </c>
     </row>
@@ -7145,7 +7161,7 @@
       <c r="L156" s="4">
         <v>9</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>625</v>
       </c>
     </row>
@@ -7184,7 +7200,7 @@
       <c r="L157" s="4">
         <v>10</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>745</v>
       </c>
     </row>
@@ -7226,7 +7242,7 @@
         <v>22</v>
       </c>
       <c r="M158" s="5">
-        <v>1.02</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7265,53 +7281,53 @@
         <v>28</v>
       </c>
       <c r="M159" s="5">
-        <v>1.3979999999999999</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>2.0390000000000001</v>
+        <v>2039</v>
       </c>
       <c r="D160" s="5">
-        <v>1.431</v>
+        <v>1431</v>
       </c>
       <c r="E160" s="5">
-        <v>6.6550000000000002</v>
+        <v>6655</v>
       </c>
       <c r="F160" s="5">
-        <v>2.1080000000000001</v>
+        <v>2108</v>
       </c>
       <c r="G160" s="5">
-        <v>4.1310000000000002</v>
+        <v>4131</v>
       </c>
       <c r="H160" s="5">
-        <v>6.9169999999999998</v>
+        <v>6917</v>
       </c>
       <c r="I160" s="5">
-        <v>2.8919999999999999</v>
-      </c>
-      <c r="J160" s="5">
+        <v>2892</v>
+      </c>
+      <c r="J160" s="6">
         <v>247</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>18</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>246</v>
       </c>
       <c r="M160" s="5">
-        <v>26.684000000000001</v>
+        <v>26684</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7336,7 +7352,7 @@
       <c r="J161" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L161" s="2" t="s">
@@ -7377,13 +7393,13 @@
       <c r="J162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K162" s="4" t="s">
-        <v>15</v>
+      <c r="K162" s="4">
+        <v>0</v>
       </c>
       <c r="L162" s="4">
         <v>1</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="6">
         <v>196</v>
       </c>
     </row>
@@ -7416,13 +7432,13 @@
       <c r="J163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>15</v>
+      <c r="K163" s="4">
+        <v>0</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="6">
         <v>173</v>
       </c>
     </row>
@@ -7457,13 +7473,13 @@
       <c r="J164" s="4">
         <v>4</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>15</v>
+      <c r="K164" s="4">
+        <v>0</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="6">
         <v>131</v>
       </c>
     </row>
@@ -7496,13 +7512,13 @@
       <c r="J165" s="4">
         <v>3</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>15</v>
+      <c r="K165" s="4">
+        <v>0</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="6">
         <v>110</v>
       </c>
     </row>
@@ -7537,13 +7553,13 @@
       <c r="J166" s="4">
         <v>6</v>
       </c>
-      <c r="K166" s="4" t="s">
-        <v>15</v>
+      <c r="K166" s="4">
+        <v>0</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="6">
         <v>107</v>
       </c>
     </row>
@@ -7576,13 +7592,13 @@
       <c r="J167" s="4">
         <v>2</v>
       </c>
-      <c r="K167" s="4" t="s">
-        <v>15</v>
+      <c r="K167" s="4">
+        <v>0</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>111</v>
       </c>
     </row>
@@ -7617,13 +7633,13 @@
       <c r="J168" s="4">
         <v>2</v>
       </c>
-      <c r="K168" s="4" t="s">
-        <v>15</v>
+      <c r="K168" s="4">
+        <v>0</v>
       </c>
       <c r="L168" s="4">
         <v>3</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>149</v>
       </c>
     </row>
@@ -7656,13 +7672,13 @@
       <c r="J169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K169" s="4" t="s">
-        <v>15</v>
+      <c r="K169" s="4">
+        <v>0</v>
       </c>
       <c r="L169" s="4">
         <v>2</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>110</v>
       </c>
     </row>
@@ -7697,13 +7713,13 @@
       <c r="J170" s="4">
         <v>1</v>
       </c>
-      <c r="K170" s="4" t="s">
-        <v>15</v>
+      <c r="K170" s="4">
+        <v>0</v>
       </c>
       <c r="L170" s="4">
         <v>2</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>124</v>
       </c>
     </row>
@@ -7736,13 +7752,13 @@
       <c r="J171" s="4">
         <v>1</v>
       </c>
-      <c r="K171" s="4" t="s">
-        <v>15</v>
+      <c r="K171" s="4">
+        <v>0</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>124</v>
       </c>
     </row>
@@ -7777,13 +7793,13 @@
       <c r="J172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K172" s="4" t="s">
-        <v>15</v>
+      <c r="K172" s="4">
+        <v>0</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>124</v>
       </c>
     </row>
@@ -7816,13 +7832,13 @@
       <c r="J173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K173" s="4" t="s">
-        <v>15</v>
+      <c r="K173" s="4">
+        <v>0</v>
       </c>
       <c r="L173" s="4">
         <v>3</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>111</v>
       </c>
     </row>
@@ -7857,13 +7873,13 @@
       <c r="J174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K174" s="4" t="s">
-        <v>15</v>
+      <c r="K174" s="4">
+        <v>0</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>112</v>
       </c>
     </row>
@@ -7896,13 +7912,13 @@
       <c r="J175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K175" s="4" t="s">
-        <v>15</v>
+      <c r="K175" s="4">
+        <v>0</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>100</v>
       </c>
     </row>
@@ -7937,13 +7953,13 @@
       <c r="J176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K176" s="4" t="s">
-        <v>15</v>
+      <c r="K176" s="4">
+        <v>0</v>
       </c>
       <c r="L176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>131</v>
       </c>
     </row>
@@ -7976,13 +7992,13 @@
       <c r="J177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K177" s="4" t="s">
-        <v>15</v>
+      <c r="K177" s="4">
+        <v>0</v>
       </c>
       <c r="L177" s="4">
         <v>1</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>102</v>
       </c>
     </row>
@@ -8017,13 +8033,13 @@
       <c r="J178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K178" s="4" t="s">
-        <v>15</v>
+      <c r="K178" s="4">
+        <v>0</v>
       </c>
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>116</v>
       </c>
     </row>
@@ -8056,13 +8072,13 @@
       <c r="J179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K179" s="4" t="s">
-        <v>15</v>
+      <c r="K179" s="4">
+        <v>0</v>
       </c>
       <c r="L179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>150</v>
       </c>
     </row>
@@ -8097,13 +8113,13 @@
       <c r="J180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K180" s="4" t="s">
-        <v>15</v>
+      <c r="K180" s="4">
+        <v>0</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>120</v>
       </c>
     </row>
@@ -8136,13 +8152,13 @@
       <c r="J181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K181" s="4" t="s">
-        <v>15</v>
+      <c r="K181" s="4">
+        <v>0</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>105</v>
       </c>
     </row>
@@ -8177,13 +8193,13 @@
       <c r="J182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K182" s="4" t="s">
-        <v>15</v>
+      <c r="K182" s="4">
+        <v>0</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>88</v>
       </c>
     </row>
@@ -8216,13 +8232,13 @@
       <c r="J183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K183" s="4" t="s">
-        <v>15</v>
+      <c r="K183" s="4">
+        <v>0</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>91</v>
       </c>
     </row>
@@ -8257,13 +8273,13 @@
       <c r="J184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K184" s="4" t="s">
-        <v>15</v>
+      <c r="K184" s="4">
+        <v>0</v>
       </c>
       <c r="L184" s="4">
         <v>3</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>146</v>
       </c>
     </row>
@@ -8296,13 +8312,13 @@
       <c r="J185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K185" s="4" t="s">
-        <v>15</v>
+      <c r="K185" s="4">
+        <v>0</v>
       </c>
       <c r="L185" s="4">
         <v>3</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>209</v>
       </c>
     </row>
@@ -8310,46 +8326,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
         <v>387</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="6">
         <v>221</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="6">
         <v>981</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="6">
         <v>265</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="6">
         <v>357</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="6">
         <v>533</v>
       </c>
-      <c r="I186" s="5">
+      <c r="I186" s="6">
         <v>258</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="6">
         <v>19</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="4">
         <v>0</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>19</v>
       </c>
       <c r="M186" s="5">
-        <v>3.04</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8421,7 +8437,7 @@
       <c r="L188" s="4">
         <v>9</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="6">
         <v>570</v>
       </c>
     </row>
@@ -8460,7 +8476,7 @@
       <c r="L189" s="4">
         <v>4</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="6">
         <v>515</v>
       </c>
     </row>
@@ -8501,7 +8517,7 @@
       <c r="L190" s="4">
         <v>3</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="6">
         <v>531</v>
       </c>
     </row>
@@ -8540,7 +8556,7 @@
       <c r="L191" s="4">
         <v>3</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="6">
         <v>365</v>
       </c>
     </row>
@@ -8581,7 +8597,7 @@
       <c r="L192" s="4">
         <v>1</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="6">
         <v>428</v>
       </c>
     </row>
@@ -8620,7 +8636,7 @@
       <c r="L193" s="4">
         <v>6</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>317</v>
       </c>
     </row>
@@ -8661,7 +8677,7 @@
       <c r="L194" s="4">
         <v>4</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="6">
         <v>394</v>
       </c>
     </row>
@@ -8700,7 +8716,7 @@
       <c r="L195" s="4">
         <v>3</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>287</v>
       </c>
     </row>
@@ -8741,7 +8757,7 @@
       <c r="L196" s="4">
         <v>6</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="6">
         <v>461</v>
       </c>
     </row>
@@ -8780,7 +8796,7 @@
       <c r="L197" s="4">
         <v>2</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>342</v>
       </c>
     </row>
@@ -8821,7 +8837,7 @@
       <c r="L198" s="4">
         <v>4</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="6">
         <v>434</v>
       </c>
     </row>
@@ -8860,7 +8876,7 @@
       <c r="L199" s="4">
         <v>4</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="6">
         <v>405</v>
       </c>
     </row>
@@ -8901,7 +8917,7 @@
       <c r="L200" s="4">
         <v>12</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="6">
         <v>528</v>
       </c>
     </row>
@@ -8940,7 +8956,7 @@
       <c r="L201" s="4">
         <v>9</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="6">
         <v>526</v>
       </c>
     </row>
@@ -8981,7 +8997,7 @@
       <c r="L202" s="4">
         <v>8</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="6">
         <v>663</v>
       </c>
     </row>
@@ -9020,7 +9036,7 @@
       <c r="L203" s="4">
         <v>9</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="6">
         <v>635</v>
       </c>
     </row>
@@ -9061,7 +9077,7 @@
       <c r="L204" s="4">
         <v>14</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="6">
         <v>683</v>
       </c>
     </row>
@@ -9100,7 +9116,7 @@
       <c r="L205" s="4">
         <v>10</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="6">
         <v>643</v>
       </c>
     </row>
@@ -9141,7 +9157,7 @@
       <c r="L206" s="4">
         <v>9</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>637</v>
       </c>
     </row>
@@ -9180,7 +9196,7 @@
       <c r="L207" s="4">
         <v>12</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>595</v>
       </c>
     </row>
@@ -9221,7 +9237,7 @@
       <c r="L208" s="4">
         <v>5</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>526</v>
       </c>
     </row>
@@ -9260,7 +9276,7 @@
       <c r="L209" s="4">
         <v>13</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>573</v>
       </c>
     </row>
@@ -9301,7 +9317,7 @@
       <c r="L210" s="4">
         <v>3</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>692</v>
       </c>
     </row>
@@ -9341,53 +9357,53 @@
         <v>12</v>
       </c>
       <c r="M211" s="5">
-        <v>1.2250000000000001</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="5">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="D212" s="5">
+        <v>1449</v>
+      </c>
+      <c r="D212" s="6">
         <v>725</v>
       </c>
       <c r="E212" s="5">
-        <v>3.06</v>
-      </c>
-      <c r="F212" s="5">
+        <v>3060</v>
+      </c>
+      <c r="F212" s="6">
         <v>735</v>
       </c>
       <c r="G212" s="5">
-        <v>1.853</v>
+        <v>1853</v>
       </c>
       <c r="H212" s="5">
-        <v>3.3679999999999999</v>
+        <v>3368</v>
       </c>
       <c r="I212" s="5">
-        <v>1.516</v>
-      </c>
-      <c r="J212" s="5">
+        <v>1516</v>
+      </c>
+      <c r="J212" s="6">
         <v>97</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>7</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>165</v>
       </c>
       <c r="M212" s="5">
-        <v>12.975</v>
+        <v>12975</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9459,7 +9475,7 @@
       <c r="L214" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="6">
         <v>243</v>
       </c>
     </row>
@@ -9498,7 +9514,7 @@
       <c r="L215" s="4">
         <v>1</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="6">
         <v>224</v>
       </c>
     </row>
@@ -9539,7 +9555,7 @@
       <c r="L216" s="4">
         <v>1</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="6">
         <v>167</v>
       </c>
     </row>
@@ -9578,7 +9594,7 @@
       <c r="L217" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="6">
         <v>145</v>
       </c>
     </row>
@@ -9619,7 +9635,7 @@
       <c r="L218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="6">
         <v>131</v>
       </c>
     </row>
@@ -9658,7 +9674,7 @@
       <c r="L219" s="4">
         <v>1</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="6">
         <v>129</v>
       </c>
     </row>
@@ -9699,7 +9715,7 @@
       <c r="L220" s="4">
         <v>1</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="6">
         <v>141</v>
       </c>
     </row>
@@ -9738,7 +9754,7 @@
       <c r="L221" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="6">
         <v>133</v>
       </c>
     </row>
@@ -9779,7 +9795,7 @@
       <c r="L222" s="4">
         <v>1</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="6">
         <v>181</v>
       </c>
     </row>
@@ -9818,7 +9834,7 @@
       <c r="L223" s="4">
         <v>1</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="6">
         <v>132</v>
       </c>
     </row>
@@ -9859,7 +9875,7 @@
       <c r="L224" s="4">
         <v>3</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="6">
         <v>181</v>
       </c>
     </row>
@@ -9898,7 +9914,7 @@
       <c r="L225" s="4">
         <v>1</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="6">
         <v>185</v>
       </c>
     </row>
@@ -9939,7 +9955,7 @@
       <c r="L226" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="6">
         <v>176</v>
       </c>
     </row>
@@ -9978,7 +9994,7 @@
       <c r="L227" s="4">
         <v>1</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="6">
         <v>188</v>
       </c>
     </row>
@@ -10019,7 +10035,7 @@
       <c r="L228" s="4">
         <v>2</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="6">
         <v>204</v>
       </c>
     </row>
@@ -10058,7 +10074,7 @@
       <c r="L229" s="4">
         <v>1</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="6">
         <v>207</v>
       </c>
     </row>
@@ -10099,7 +10115,7 @@
       <c r="L230" s="4">
         <v>2</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="6">
         <v>226</v>
       </c>
     </row>
@@ -10138,7 +10154,7 @@
       <c r="L231" s="4">
         <v>2</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="6">
         <v>199</v>
       </c>
     </row>
@@ -10179,7 +10195,7 @@
       <c r="L232" s="4">
         <v>3</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="6">
         <v>223</v>
       </c>
     </row>
@@ -10218,7 +10234,7 @@
       <c r="L233" s="4">
         <v>2</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="6">
         <v>205</v>
       </c>
     </row>
@@ -10259,7 +10275,7 @@
       <c r="L234" s="4">
         <v>2</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="6">
         <v>162</v>
       </c>
     </row>
@@ -10298,7 +10314,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="6">
         <v>193</v>
       </c>
     </row>
@@ -10339,7 +10355,7 @@
       <c r="L236" s="4">
         <v>2</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="6">
         <v>257</v>
       </c>
     </row>
@@ -10378,7 +10394,7 @@
       <c r="L237" s="4">
         <v>4</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="6">
         <v>368</v>
       </c>
     </row>
@@ -10386,46 +10402,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
         <v>620</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="6">
         <v>424</v>
       </c>
       <c r="E238" s="5">
-        <v>1.298</v>
-      </c>
-      <c r="F238" s="5">
+        <v>1298</v>
+      </c>
+      <c r="F238" s="6">
         <v>448</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238" s="6">
         <v>531</v>
       </c>
-      <c r="H238" s="5">
+      <c r="H238" s="6">
         <v>813</v>
       </c>
-      <c r="I238" s="5">
+      <c r="I238" s="6">
         <v>403</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="6">
         <v>28</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="6">
         <v>3</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="6">
         <v>32</v>
       </c>
       <c r="M238" s="5">
-        <v>4.5999999999999996</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10497,7 +10513,7 @@
       <c r="L240" s="4">
         <v>3</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="6">
         <v>327</v>
       </c>
     </row>
@@ -10536,7 +10552,7 @@
       <c r="L241" s="4">
         <v>1</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="6">
         <v>359</v>
       </c>
     </row>
@@ -10577,7 +10593,7 @@
       <c r="L242" s="4">
         <v>2</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>213</v>
       </c>
     </row>
@@ -10616,7 +10632,7 @@
       <c r="L243" s="4">
         <v>2</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>169</v>
       </c>
     </row>
@@ -10657,7 +10673,7 @@
       <c r="L244" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>198</v>
       </c>
     </row>
@@ -10696,7 +10712,7 @@
       <c r="L245" s="4">
         <v>1</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>110</v>
       </c>
     </row>
@@ -10737,7 +10753,7 @@
       <c r="L246" s="4">
         <v>2</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>183</v>
       </c>
     </row>
@@ -10776,7 +10792,7 @@
       <c r="L247" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>150</v>
       </c>
     </row>
@@ -10817,7 +10833,7 @@
       <c r="L248" s="4">
         <v>2</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>208</v>
       </c>
     </row>
@@ -10856,7 +10872,7 @@
       <c r="L249" s="4">
         <v>3</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>195</v>
       </c>
     </row>
@@ -10897,7 +10913,7 @@
       <c r="L250" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>219</v>
       </c>
     </row>
@@ -10936,7 +10952,7 @@
       <c r="L251" s="4">
         <v>3</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>191</v>
       </c>
     </row>
@@ -10977,7 +10993,7 @@
       <c r="L252" s="4">
         <v>1</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>255</v>
       </c>
     </row>
@@ -11016,7 +11032,7 @@
       <c r="L253" s="4">
         <v>3</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>228</v>
       </c>
     </row>
@@ -11057,7 +11073,7 @@
       <c r="L254" s="4">
         <v>1</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>304</v>
       </c>
     </row>
@@ -11096,7 +11112,7 @@
       <c r="L255" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>289</v>
       </c>
     </row>
@@ -11137,7 +11153,7 @@
       <c r="L256" s="4">
         <v>3</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>279</v>
       </c>
     </row>
@@ -11176,7 +11192,7 @@
       <c r="L257" s="4">
         <v>4</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>263</v>
       </c>
     </row>
@@ -11217,7 +11233,7 @@
       <c r="L258" s="4">
         <v>3</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>265</v>
       </c>
     </row>
@@ -11256,7 +11272,7 @@
       <c r="L259" s="4">
         <v>4</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>257</v>
       </c>
     </row>
@@ -11297,7 +11313,7 @@
       <c r="L260" s="4">
         <v>2</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>212</v>
       </c>
     </row>
@@ -11336,7 +11352,7 @@
       <c r="L261" s="4">
         <v>5</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>224</v>
       </c>
     </row>
@@ -11377,7 +11393,7 @@
       <c r="L262" s="4">
         <v>2</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>274</v>
       </c>
     </row>
@@ -11416,7 +11432,7 @@
       <c r="L263" s="4">
         <v>7</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="6">
         <v>440</v>
       </c>
     </row>
@@ -11424,46 +11440,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
         <v>553</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="6">
         <v>370</v>
       </c>
       <c r="E264" s="5">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="F264" s="5">
+        <v>1684</v>
+      </c>
+      <c r="F264" s="6">
         <v>584</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="6">
         <v>756</v>
       </c>
       <c r="H264" s="5">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="I264" s="5">
+        <v>1219</v>
+      </c>
+      <c r="I264" s="6">
         <v>541</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="6">
         <v>50</v>
       </c>
-      <c r="K264" s="5">
-        <v>1</v>
-      </c>
-      <c r="L264" s="5">
+      <c r="K264" s="6">
+        <v>1</v>
+      </c>
+      <c r="L264" s="6">
         <v>54</v>
       </c>
       <c r="M264" s="5">
-        <v>5.8120000000000003</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11535,7 +11551,7 @@
       <c r="L266" s="4">
         <v>10</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="6">
         <v>589</v>
       </c>
     </row>
@@ -11574,7 +11590,7 @@
       <c r="L267" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="6">
         <v>564</v>
       </c>
     </row>
@@ -11615,7 +11631,7 @@
       <c r="L268" s="4">
         <v>1</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>394</v>
       </c>
     </row>
@@ -11654,7 +11670,7 @@
       <c r="L269" s="4">
         <v>2</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="6">
         <v>334</v>
       </c>
     </row>
@@ -11695,7 +11711,7 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="6">
         <v>363</v>
       </c>
     </row>
@@ -11734,7 +11750,7 @@
       <c r="L271" s="4">
         <v>4</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="6">
         <v>272</v>
       </c>
     </row>
@@ -11775,7 +11791,7 @@
       <c r="L272" s="4">
         <v>7</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="6">
         <v>351</v>
       </c>
     </row>
@@ -11814,7 +11830,7 @@
       <c r="L273" s="4">
         <v>8</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>268</v>
       </c>
     </row>
@@ -11855,7 +11871,7 @@
       <c r="L274" s="4">
         <v>8</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="6">
         <v>385</v>
       </c>
     </row>
@@ -11894,7 +11910,7 @@
       <c r="L275" s="4">
         <v>3</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="6">
         <v>342</v>
       </c>
     </row>
@@ -11935,7 +11951,7 @@
       <c r="L276" s="4">
         <v>6</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="6">
         <v>322</v>
       </c>
     </row>
@@ -11974,7 +11990,7 @@
       <c r="L277" s="4">
         <v>4</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>292</v>
       </c>
     </row>
@@ -12015,7 +12031,7 @@
       <c r="L278" s="4">
         <v>5</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="6">
         <v>331</v>
       </c>
     </row>
@@ -12054,7 +12070,7 @@
       <c r="L279" s="4">
         <v>6</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>329</v>
       </c>
     </row>
@@ -12095,7 +12111,7 @@
       <c r="L280" s="4">
         <v>3</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>421</v>
       </c>
     </row>
@@ -12134,7 +12150,7 @@
       <c r="L281" s="4">
         <v>4</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>395</v>
       </c>
     </row>
@@ -12175,7 +12191,7 @@
       <c r="L282" s="4">
         <v>3</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>453</v>
       </c>
     </row>
@@ -12214,7 +12230,7 @@
       <c r="L283" s="4">
         <v>2</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>428</v>
       </c>
     </row>
@@ -12255,7 +12271,7 @@
       <c r="L284" s="4">
         <v>9</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>487</v>
       </c>
     </row>
@@ -12294,7 +12310,7 @@
       <c r="L285" s="4">
         <v>4</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>522</v>
       </c>
     </row>
@@ -12335,7 +12351,7 @@
       <c r="L286" s="4">
         <v>3</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>375</v>
       </c>
     </row>
@@ -12374,7 +12390,7 @@
       <c r="L287" s="4">
         <v>8</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>507</v>
       </c>
     </row>
@@ -12415,7 +12431,7 @@
       <c r="L288" s="4">
         <v>3</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>577</v>
       </c>
     </row>
@@ -12454,7 +12470,7 @@
       <c r="L289" s="4">
         <v>11</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="6">
         <v>992</v>
       </c>
     </row>
@@ -12462,46 +12478,46 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="5">
-        <v>2.2959999999999998</v>
-      </c>
-      <c r="D290" s="5">
+        <v>2296</v>
+      </c>
+      <c r="D290" s="6">
         <v>870</v>
       </c>
       <c r="E290" s="5">
-        <v>3.0510000000000002</v>
-      </c>
-      <c r="F290" s="5">
+        <v>3051</v>
+      </c>
+      <c r="F290" s="6">
         <v>739</v>
       </c>
       <c r="G290" s="5">
-        <v>1.1759999999999999</v>
+        <v>1176</v>
       </c>
       <c r="H290" s="5">
-        <v>1.357</v>
-      </c>
-      <c r="I290" s="5">
+        <v>1357</v>
+      </c>
+      <c r="I290" s="6">
         <v>633</v>
       </c>
-      <c r="J290" s="5">
+      <c r="J290" s="6">
         <v>48</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="6">
         <v>6</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>117</v>
       </c>
       <c r="M290" s="5">
-        <v>10.292999999999999</v>
+        <v>10293</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12573,7 +12589,7 @@
       <c r="L292" s="4">
         <v>5</v>
       </c>
-      <c r="M292" s="5">
+      <c r="M292" s="6">
         <v>726</v>
       </c>
     </row>
@@ -12612,7 +12628,7 @@
       <c r="L293" s="4">
         <v>1</v>
       </c>
-      <c r="M293" s="5">
+      <c r="M293" s="6">
         <v>645</v>
       </c>
     </row>
@@ -12653,7 +12669,7 @@
       <c r="L294" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="6">
         <v>422</v>
       </c>
     </row>
@@ -12692,7 +12708,7 @@
       <c r="L295" s="4">
         <v>1</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="6">
         <v>371</v>
       </c>
     </row>
@@ -12733,7 +12749,7 @@
       <c r="L296" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="6">
         <v>382</v>
       </c>
     </row>
@@ -12772,7 +12788,7 @@
       <c r="L297" s="4">
         <v>2</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="6">
         <v>298</v>
       </c>
     </row>
@@ -12813,7 +12829,7 @@
       <c r="L298" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="6">
         <v>371</v>
       </c>
     </row>
@@ -12852,7 +12868,7 @@
       <c r="L299" s="4">
         <v>2</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="6">
         <v>306</v>
       </c>
     </row>
@@ -12893,7 +12909,7 @@
       <c r="L300" s="4">
         <v>2</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="6">
         <v>412</v>
       </c>
     </row>
@@ -12932,7 +12948,7 @@
       <c r="L301" s="4">
         <v>3</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="6">
         <v>398</v>
       </c>
     </row>
@@ -12973,7 +12989,7 @@
       <c r="L302" s="4">
         <v>5</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="6">
         <v>432</v>
       </c>
     </row>
@@ -13012,7 +13028,7 @@
       <c r="L303" s="4">
         <v>6</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="6">
         <v>402</v>
       </c>
     </row>
@@ -13053,7 +13069,7 @@
       <c r="L304" s="4">
         <v>4</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="6">
         <v>412</v>
       </c>
     </row>
@@ -13092,7 +13108,7 @@
       <c r="L305" s="4">
         <v>2</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="6">
         <v>390</v>
       </c>
     </row>
@@ -13133,7 +13149,7 @@
       <c r="L306" s="4">
         <v>4</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="6">
         <v>436</v>
       </c>
     </row>
@@ -13172,7 +13188,7 @@
       <c r="L307" s="4">
         <v>1</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="6">
         <v>365</v>
       </c>
     </row>
@@ -13213,7 +13229,7 @@
       <c r="L308" s="4">
         <v>6</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="6">
         <v>347</v>
       </c>
     </row>
@@ -13252,7 +13268,7 @@
       <c r="L309" s="4">
         <v>5</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="6">
         <v>305</v>
       </c>
     </row>
@@ -13293,7 +13309,7 @@
       <c r="L310" s="4">
         <v>2</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="6">
         <v>336</v>
       </c>
     </row>
@@ -13332,7 +13348,7 @@
       <c r="L311" s="4">
         <v>3</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="6">
         <v>322</v>
       </c>
     </row>
@@ -13373,7 +13389,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="6">
         <v>193</v>
       </c>
     </row>
@@ -13412,7 +13428,7 @@
       <c r="L313" s="4">
         <v>3</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="6">
         <v>254</v>
       </c>
     </row>
@@ -13453,7 +13469,7 @@
       <c r="L314" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="6">
         <v>298</v>
       </c>
     </row>
@@ -13492,7 +13508,7 @@
       <c r="L315" s="4">
         <v>11</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="6">
         <v>465</v>
       </c>
     </row>
@@ -13500,46 +13516,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>670</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="6">
         <v>419</v>
       </c>
       <c r="E316" s="5">
-        <v>2.13</v>
-      </c>
-      <c r="F316" s="5">
+        <v>2130</v>
+      </c>
+      <c r="F316" s="6">
         <v>886</v>
       </c>
       <c r="G316" s="5">
-        <v>1.5449999999999999</v>
+        <v>1545</v>
       </c>
       <c r="H316" s="5">
-        <v>2.4750000000000001</v>
+        <v>2475</v>
       </c>
       <c r="I316" s="5">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="J316" s="5">
+        <v>1023</v>
+      </c>
+      <c r="J316" s="6">
         <v>61</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>9</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>70</v>
       </c>
       <c r="M316" s="5">
-        <v>9.2880000000000003</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13593,14 +13609,14 @@
       <c r="F318" s="4">
         <v>4</v>
       </c>
-      <c r="G318" s="4">
-        <v>2.7269999999999999</v>
-      </c>
-      <c r="H318" s="4">
-        <v>10.262</v>
-      </c>
-      <c r="I318" s="4">
-        <v>1.899</v>
+      <c r="G318" s="8">
+        <v>2727</v>
+      </c>
+      <c r="H318" s="8">
+        <v>10262</v>
+      </c>
+      <c r="I318" s="8">
+        <v>1899</v>
       </c>
       <c r="J318" s="4">
         <v>24</v>
@@ -13612,7 +13628,7 @@
         <v>99</v>
       </c>
       <c r="M318" s="5">
-        <v>15.096</v>
+        <v>15096</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13632,14 +13648,14 @@
       <c r="F319" s="4">
         <v>2</v>
       </c>
-      <c r="G319" s="4">
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="H319" s="4">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="I319" s="4">
-        <v>2.347</v>
+      <c r="G319" s="8">
+        <v>2138</v>
+      </c>
+      <c r="H319" s="8">
+        <v>9790</v>
+      </c>
+      <c r="I319" s="8">
+        <v>2347</v>
       </c>
       <c r="J319" s="4">
         <v>29</v>
@@ -13651,7 +13667,7 @@
         <v>56</v>
       </c>
       <c r="M319" s="5">
-        <v>14.455</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13673,14 +13689,14 @@
       <c r="F320" s="4">
         <v>56</v>
       </c>
-      <c r="G320" s="4">
-        <v>1.661</v>
-      </c>
-      <c r="H320" s="4">
-        <v>3.6850000000000001</v>
-      </c>
-      <c r="I320" s="4">
-        <v>4.899</v>
+      <c r="G320" s="8">
+        <v>1661</v>
+      </c>
+      <c r="H320" s="8">
+        <v>3685</v>
+      </c>
+      <c r="I320" s="8">
+        <v>4899</v>
       </c>
       <c r="J320" s="4">
         <v>447</v>
@@ -13692,7 +13708,7 @@
         <v>63</v>
       </c>
       <c r="M320" s="5">
-        <v>10.879</v>
+        <v>10879</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13712,14 +13728,14 @@
       <c r="F321" s="4">
         <v>102</v>
       </c>
-      <c r="G321" s="4">
-        <v>1.522</v>
-      </c>
-      <c r="H321" s="4">
-        <v>2.6269999999999998</v>
-      </c>
-      <c r="I321" s="4">
-        <v>5.4969999999999999</v>
+      <c r="G321" s="8">
+        <v>1522</v>
+      </c>
+      <c r="H321" s="8">
+        <v>2627</v>
+      </c>
+      <c r="I321" s="8">
+        <v>5497</v>
       </c>
       <c r="J321" s="4">
         <v>474</v>
@@ -13731,7 +13747,7 @@
         <v>50</v>
       </c>
       <c r="M321" s="5">
-        <v>10.538</v>
+        <v>10538</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13756,11 +13772,11 @@
       <c r="G322" s="4">
         <v>998</v>
       </c>
-      <c r="H322" s="4">
-        <v>3.32</v>
-      </c>
-      <c r="I322" s="4">
-        <v>5.1609999999999996</v>
+      <c r="H322" s="8">
+        <v>3320</v>
+      </c>
+      <c r="I322" s="8">
+        <v>5161</v>
       </c>
       <c r="J322" s="4">
         <v>702</v>
@@ -13772,7 +13788,7 @@
         <v>38</v>
       </c>
       <c r="M322" s="5">
-        <v>11.271000000000001</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13789,17 +13805,17 @@
       <c r="E323" s="4">
         <v>165</v>
       </c>
-      <c r="F323" s="4">
-        <v>1.496</v>
+      <c r="F323" s="8">
+        <v>1496</v>
       </c>
       <c r="G323" s="4">
         <v>821</v>
       </c>
-      <c r="H323" s="4">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="I323" s="4">
-        <v>4.859</v>
+      <c r="H323" s="8">
+        <v>2574</v>
+      </c>
+      <c r="I323" s="8">
+        <v>4859</v>
       </c>
       <c r="J323" s="4">
         <v>665</v>
@@ -13811,7 +13827,7 @@
         <v>58</v>
       </c>
       <c r="M323" s="5">
-        <v>10.936</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13830,17 +13846,17 @@
       <c r="E324" s="4">
         <v>285</v>
       </c>
-      <c r="F324" s="4">
-        <v>1.403</v>
+      <c r="F324" s="8">
+        <v>1403</v>
       </c>
       <c r="G324" s="4">
         <v>962</v>
       </c>
-      <c r="H324" s="4">
-        <v>3.8439999999999999</v>
-      </c>
-      <c r="I324" s="4">
-        <v>4.7329999999999997</v>
+      <c r="H324" s="8">
+        <v>3844</v>
+      </c>
+      <c r="I324" s="8">
+        <v>4733</v>
       </c>
       <c r="J324" s="4">
         <v>857</v>
@@ -13852,7 +13868,7 @@
         <v>50</v>
       </c>
       <c r="M324" s="5">
-        <v>12.292999999999999</v>
+        <v>12293</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13866,20 +13882,20 @@
       <c r="D325" s="4">
         <v>164</v>
       </c>
-      <c r="E325" s="4">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="F325" s="4">
-        <v>1.288</v>
+      <c r="E325" s="8">
+        <v>1622</v>
+      </c>
+      <c r="F325" s="8">
+        <v>1288</v>
       </c>
       <c r="G325" s="4">
         <v>884</v>
       </c>
-      <c r="H325" s="4">
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="I325" s="4">
-        <v>3.8839999999999999</v>
+      <c r="H325" s="8">
+        <v>3103</v>
+      </c>
+      <c r="I325" s="8">
+        <v>3884</v>
       </c>
       <c r="J325" s="4">
         <v>605</v>
@@ -13891,7 +13907,7 @@
         <v>62</v>
       </c>
       <c r="M325" s="5">
-        <v>11.753</v>
+        <v>11753</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13910,17 +13926,17 @@
       <c r="E326" s="4">
         <v>573</v>
       </c>
-      <c r="F326" s="4">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="G326" s="4">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="H326" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="I326" s="4">
-        <v>3.7919999999999998</v>
+      <c r="F326" s="8">
+        <v>1269</v>
+      </c>
+      <c r="G326" s="8">
+        <v>1568</v>
+      </c>
+      <c r="H326" s="8">
+        <v>4120</v>
+      </c>
+      <c r="I326" s="8">
+        <v>3792</v>
       </c>
       <c r="J326" s="4">
         <v>976</v>
@@ -13932,7 +13948,7 @@
         <v>58</v>
       </c>
       <c r="M326" s="5">
-        <v>12.538</v>
+        <v>12538</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13946,20 +13962,20 @@
       <c r="D327" s="4">
         <v>169</v>
       </c>
-      <c r="E327" s="4">
-        <v>2.5350000000000001</v>
+      <c r="E327" s="8">
+        <v>2535</v>
       </c>
       <c r="F327" s="4">
         <v>961</v>
       </c>
-      <c r="G327" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="H327" s="4">
-        <v>3.218</v>
-      </c>
-      <c r="I327" s="4">
-        <v>3.0209999999999999</v>
+      <c r="G327" s="8">
+        <v>1480</v>
+      </c>
+      <c r="H327" s="8">
+        <v>3218</v>
+      </c>
+      <c r="I327" s="8">
+        <v>3021</v>
       </c>
       <c r="J327" s="4">
         <v>574</v>
@@ -13971,7 +13987,7 @@
         <v>54</v>
       </c>
       <c r="M327" s="5">
-        <v>12.21</v>
+        <v>12210</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -13990,17 +14006,17 @@
       <c r="E328" s="4">
         <v>744</v>
       </c>
-      <c r="F328" s="4">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="G328" s="4">
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="H328" s="4">
-        <v>3.391</v>
-      </c>
-      <c r="I328" s="4">
-        <v>3.3279999999999998</v>
+      <c r="F328" s="8">
+        <v>1295</v>
+      </c>
+      <c r="G328" s="8">
+        <v>1519</v>
+      </c>
+      <c r="H328" s="8">
+        <v>3391</v>
+      </c>
+      <c r="I328" s="8">
+        <v>3328</v>
       </c>
       <c r="J328" s="4">
         <v>591</v>
@@ -14012,7 +14028,7 @@
         <v>66</v>
       </c>
       <c r="M328" s="5">
-        <v>11.098000000000001</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14026,20 +14042,20 @@
       <c r="D329" s="4">
         <v>206</v>
       </c>
-      <c r="E329" s="4">
-        <v>2.78</v>
-      </c>
-      <c r="F329" s="4">
-        <v>1.075</v>
-      </c>
-      <c r="G329" s="4">
-        <v>1.502</v>
-      </c>
-      <c r="H329" s="4">
-        <v>2.222</v>
-      </c>
-      <c r="I329" s="4">
-        <v>1.8759999999999999</v>
+      <c r="E329" s="8">
+        <v>2780</v>
+      </c>
+      <c r="F329" s="8">
+        <v>1075</v>
+      </c>
+      <c r="G329" s="8">
+        <v>1502</v>
+      </c>
+      <c r="H329" s="8">
+        <v>2222</v>
+      </c>
+      <c r="I329" s="8">
+        <v>1876</v>
       </c>
       <c r="J329" s="4">
         <v>226</v>
@@ -14051,7 +14067,7 @@
         <v>52</v>
       </c>
       <c r="M329" s="5">
-        <v>10.176</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14070,17 +14086,17 @@
       <c r="E330" s="4">
         <v>860</v>
       </c>
-      <c r="F330" s="4">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="G330" s="4">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="H330" s="4">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="I330" s="4">
-        <v>2.4390000000000001</v>
+      <c r="F330" s="8">
+        <v>1245</v>
+      </c>
+      <c r="G330" s="8">
+        <v>1807</v>
+      </c>
+      <c r="H330" s="8">
+        <v>2354</v>
+      </c>
+      <c r="I330" s="8">
+        <v>2439</v>
       </c>
       <c r="J330" s="4">
         <v>345</v>
@@ -14092,7 +14108,7 @@
         <v>57</v>
       </c>
       <c r="M330" s="5">
-        <v>9.2650000000000006</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14106,17 +14122,17 @@
       <c r="D331" s="4">
         <v>287</v>
       </c>
-      <c r="E331" s="4">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="F331" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="G331" s="4">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="H331" s="4">
-        <v>1.5680000000000001</v>
+      <c r="E331" s="8">
+        <v>2813</v>
+      </c>
+      <c r="F331" s="8">
+        <v>1030</v>
+      </c>
+      <c r="G331" s="8">
+        <v>1392</v>
+      </c>
+      <c r="H331" s="8">
+        <v>1568</v>
       </c>
       <c r="I331" s="4">
         <v>986</v>
@@ -14131,7 +14147,7 @@
         <v>78</v>
       </c>
       <c r="M331" s="5">
-        <v>8.5150000000000006</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14147,20 +14163,20 @@
       <c r="D332" s="4">
         <v>32</v>
       </c>
-      <c r="E332" s="4">
-        <v>1.097</v>
-      </c>
-      <c r="F332" s="4">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="G332" s="4">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="H332" s="4">
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="I332" s="4">
-        <v>1.4950000000000001</v>
+      <c r="E332" s="8">
+        <v>1097</v>
+      </c>
+      <c r="F332" s="8">
+        <v>1017</v>
+      </c>
+      <c r="G332" s="8">
+        <v>1568</v>
+      </c>
+      <c r="H332" s="8">
+        <v>2003</v>
+      </c>
+      <c r="I332" s="8">
+        <v>1495</v>
       </c>
       <c r="J332" s="4">
         <v>162</v>
@@ -14172,7 +14188,7 @@
         <v>69</v>
       </c>
       <c r="M332" s="5">
-        <v>7.5069999999999997</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14186,17 +14202,17 @@
       <c r="D333" s="4">
         <v>394</v>
       </c>
-      <c r="E333" s="4">
-        <v>2.7440000000000002</v>
+      <c r="E333" s="8">
+        <v>2744</v>
       </c>
       <c r="F333" s="4">
         <v>716</v>
       </c>
-      <c r="G333" s="4">
-        <v>1.028</v>
-      </c>
-      <c r="H333" s="4">
-        <v>1.214</v>
+      <c r="G333" s="8">
+        <v>1028</v>
+      </c>
+      <c r="H333" s="8">
+        <v>1214</v>
       </c>
       <c r="I333" s="4">
         <v>534</v>
@@ -14211,7 +14227,7 @@
         <v>86</v>
       </c>
       <c r="M333" s="5">
-        <v>7.1210000000000004</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14227,20 +14243,20 @@
       <c r="D334" s="4">
         <v>58</v>
       </c>
-      <c r="E334" s="4">
-        <v>1.339</v>
+      <c r="E334" s="8">
+        <v>1339</v>
       </c>
       <c r="F334" s="4">
         <v>653</v>
       </c>
-      <c r="G334" s="4">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="H334" s="4">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="I334" s="4">
-        <v>1.0249999999999999</v>
+      <c r="G334" s="8">
+        <v>1049</v>
+      </c>
+      <c r="H334" s="8">
+        <v>1852</v>
+      </c>
+      <c r="I334" s="8">
+        <v>1025</v>
       </c>
       <c r="J334" s="4">
         <v>74</v>
@@ -14252,7 +14268,7 @@
         <v>65</v>
       </c>
       <c r="M334" s="5">
-        <v>6.1840000000000002</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14266,8 +14282,8 @@
       <c r="D335" s="4">
         <v>516</v>
       </c>
-      <c r="E335" s="4">
-        <v>2.641</v>
+      <c r="E335" s="8">
+        <v>2641</v>
       </c>
       <c r="F335" s="4">
         <v>389</v>
@@ -14291,7 +14307,7 @@
         <v>58</v>
       </c>
       <c r="M335" s="5">
-        <v>5.952</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14307,8 +14323,8 @@
       <c r="D336" s="4">
         <v>104</v>
       </c>
-      <c r="E336" s="4">
-        <v>1.522</v>
+      <c r="E336" s="8">
+        <v>1522</v>
       </c>
       <c r="F336" s="4">
         <v>302</v>
@@ -14332,7 +14348,7 @@
         <v>61</v>
       </c>
       <c r="M336" s="5">
-        <v>4.6159999999999997</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14346,8 +14362,8 @@
       <c r="D337" s="4">
         <v>616</v>
       </c>
-      <c r="E337" s="4">
-        <v>2.169</v>
+      <c r="E337" s="8">
+        <v>2169</v>
       </c>
       <c r="F337" s="4">
         <v>138</v>
@@ -14371,7 +14387,7 @@
         <v>64</v>
       </c>
       <c r="M337" s="5">
-        <v>4.7279999999999998</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14387,8 +14403,8 @@
       <c r="D338" s="4">
         <v>164</v>
       </c>
-      <c r="E338" s="4">
-        <v>1.399</v>
+      <c r="E338" s="8">
+        <v>1399</v>
       </c>
       <c r="F338" s="4">
         <v>99</v>
@@ -14412,7 +14428,7 @@
         <v>32</v>
       </c>
       <c r="M338" s="5">
-        <v>3.1419999999999999</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14420,14 +14436,14 @@
       <c r="B339" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C339" s="4">
-        <v>1.1180000000000001</v>
+      <c r="C339" s="8">
+        <v>1118</v>
       </c>
       <c r="D339" s="4">
         <v>636</v>
       </c>
-      <c r="E339" s="4">
-        <v>1.3080000000000001</v>
+      <c r="E339" s="8">
+        <v>1308</v>
       </c>
       <c r="F339" s="4">
         <v>40</v>
@@ -14451,7 +14467,7 @@
         <v>66</v>
       </c>
       <c r="M339" s="5">
-        <v>3.5329999999999999</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14467,8 +14483,8 @@
       <c r="D340" s="4">
         <v>481</v>
       </c>
-      <c r="E340" s="4">
-        <v>1.5549999999999999</v>
+      <c r="E340" s="8">
+        <v>1555</v>
       </c>
       <c r="F340" s="4">
         <v>45</v>
@@ -14492,7 +14508,7 @@
         <v>64</v>
       </c>
       <c r="M340" s="5">
-        <v>3.3919999999999999</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14500,14 +14516,14 @@
       <c r="B341" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="4">
-        <v>2.968</v>
+      <c r="C341" s="8">
+        <v>2968</v>
       </c>
       <c r="D341" s="4">
         <v>918</v>
       </c>
-      <c r="E341" s="4">
-        <v>1.016</v>
+      <c r="E341" s="8">
+        <v>1016</v>
       </c>
       <c r="F341" s="4">
         <v>12</v>
@@ -14531,46 +14547,56 @@
         <v>131</v>
       </c>
       <c r="M341" s="5">
-        <v>5.2140000000000004</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="5">
-        <v>7.3490000000000002</v>
+        <v>7349</v>
       </c>
       <c r="D342" s="5">
-        <v>5.3380000000000001</v>
+        <v>5338</v>
       </c>
       <c r="E342" s="5">
-        <v>29.477</v>
+        <v>29477</v>
       </c>
       <c r="F342" s="5">
-        <v>15.555999999999999</v>
+        <v>15556</v>
       </c>
       <c r="G342" s="5">
-        <v>27.276</v>
+        <v>27276</v>
       </c>
       <c r="H342" s="5">
-        <v>64.311999999999998</v>
+        <v>64312</v>
       </c>
       <c r="I342" s="5">
-        <v>53.706000000000003</v>
+        <v>53706</v>
       </c>
       <c r="J342" s="5">
-        <v>6.9630000000000001</v>
-      </c>
-      <c r="K342" s="5">
+        <v>6963</v>
+      </c>
+      <c r="K342" s="6">
         <v>898</v>
       </c>
       <c r="L342" s="5">
-        <v>1.5369999999999999</v>
+        <v>1537</v>
       </c>
       <c r="M342" s="5">
-        <v>212.41200000000001</v>
+        <v>212412</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
